--- a/Template+de+Plan+de+tests.xlsx
+++ b/Template+de+Plan+de+tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Titoune\Desktop\formation_open _classrooms\Avec_tuteur\Projets\P5_tristan_riedinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B18BD1-68A8-455E-B917-F2ADDC23180B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C49084A-8C06-4E01-908B-B0A968C8F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -40,323 +40,207 @@
     <t>Problème possible</t>
   </si>
   <si>
-    <t>index.js</t>
-  </si>
-  <si>
-    <t>Erreu de synthaxe, d'orthographe, pb de serveur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La fonction doit retourner les articles dispos à la vente et les afficher en conséquence </t>
-  </si>
-  <si>
-    <t>Si les produits s'affichent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 - 21 </t>
-  </si>
-  <si>
-    <t>message d erreur car non connecté au reseau</t>
-  </si>
-  <si>
-    <t>si le messsage s'affiche</t>
-  </si>
-  <si>
-    <t>le message n apparaisse pas</t>
-  </si>
-  <si>
-    <t>60 -130</t>
-  </si>
-  <si>
-    <t>creerProduit()</t>
-  </si>
-  <si>
-    <t>appelDesProduits ()</t>
-  </si>
-  <si>
-    <t>qu'une figure reprenant nom du produit, son prix et un bouton de redirection</t>
-  </si>
-  <si>
-    <t>à la présence ou non des figures en question</t>
-  </si>
-  <si>
-    <t>aucun affichage</t>
+    <t>index,js</t>
+  </si>
+  <si>
+    <t>l07 -l49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En se connectant au site. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le server Node n'est pas branché, et donc aucun produit ne s'affiche.
+Erreure dans la synthaxe de la fonction qui n'appelle rien.
+</t>
+  </si>
+  <si>
+    <t>l54 -l121</t>
+  </si>
+  <si>
+    <t>Que les informations disponibles sur l'api soient réceptionnées</t>
+  </si>
+  <si>
+    <t>Pour chaque produit récéptionné de l'API, qu'un encadré reprennant les infos et la redirection vers le produit attendu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En se connectant au site, et en cliquant sur chaque produit </t>
+  </si>
+  <si>
+    <t>Aucun produit n'apparait. 
+Les informations produits sont partiellement présentent
+La redirection mène à un produit qui n'était pas le bon</t>
   </si>
   <si>
     <t>product.js</t>
   </si>
   <si>
-    <t>appelDesProduits()</t>
-  </si>
-  <si>
-    <t>à leur affichage, et à la cohérence avec l'id du teddy concerné</t>
-  </si>
-  <si>
-    <t>affichage des mauvaises informations, voir aucun affichage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> les informations proposées soient bien celles dez l'ours de sur lequel on a cliqué, et que'elles soient correctement affichées</t>
-  </si>
-  <si>
-    <t>94-107</t>
-  </si>
-  <si>
-    <t>choixDesCouleurs()</t>
-  </si>
-  <si>
-    <t>création  d une liste déroulante avec toute les couleurs possibles</t>
-  </si>
-  <si>
-    <t>à l'affichage ou non ce cette liste et à la pertinence de son contenu</t>
-  </si>
-  <si>
-    <t>pas de liste, ou alors avec des valeurs inattendues</t>
-  </si>
-  <si>
-    <t>115-125</t>
-  </si>
-  <si>
-    <t>fonction anonyme. Incrémentation du sous total en fonction de la quantité</t>
-  </si>
-  <si>
-    <t>que le prix réagit aux changement de quantité</t>
-  </si>
-  <si>
-    <t>en jouant avec les boutons plus et moins</t>
-  </si>
-  <si>
-    <t>aucune incrémentation, voir que le sous total ne s saffiche pas. Ou qu'il calcule mal le prix de l'article</t>
-  </si>
-  <si>
-    <t>149-163</t>
-  </si>
-  <si>
-    <t>fonction anonyme. Rediretion vers la page panier</t>
-  </si>
-  <si>
-    <t>se retrouver sur basket.html</t>
-  </si>
-  <si>
-    <t>pas de redirection, ou au mauvais endroit</t>
-  </si>
-  <si>
-    <t>165-175</t>
-  </si>
-  <si>
-    <t>validerArticle()</t>
-  </si>
-  <si>
-    <t>Avoir une notification prévenant que le produit a été ajouté au panier</t>
-  </si>
-  <si>
-    <t>n'apparaisse pas, ne s'efface pas, créée un décallage à son affichage</t>
-  </si>
-  <si>
-    <t>180-190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création de l'objet teddy </t>
-  </si>
-  <si>
-    <t>obtenir dans le sessionstorage un objet reprenant les infos</t>
-  </si>
-  <si>
-    <t>n'apparaisse pas, ou ne contienne pas les bonnes informations</t>
-  </si>
-  <si>
-    <t>196-285</t>
-  </si>
-  <si>
-    <t>mise au panier</t>
-  </si>
-  <si>
-    <t>que l'objet créé au dessus, ou du moins un résumé des infos soit enregistrées dans le storage</t>
-  </si>
-  <si>
-    <t>rien ne se stocke, pas les bonnes valeur, bloque</t>
-  </si>
-  <si>
-    <t>211-216</t>
-  </si>
-  <si>
-    <t>ajoutAuPanier()</t>
-  </si>
-  <si>
-    <t>Si le produit n existe pas dans notre tableau achat, alors on le push</t>
-  </si>
-  <si>
-    <t>Pas de panier dans le storage ou il n'enregistre plus d'informations</t>
-  </si>
-  <si>
-    <t>220-226</t>
-  </si>
-  <si>
-    <t>Itération nbarticle et total</t>
-  </si>
-  <si>
-    <t>Qu'à l'ajout des produits, la quantité et le montant total s'incrémente</t>
-  </si>
-  <si>
-    <t>pas d'incrémentation,ou incrémnetation des mauvaises valeurs</t>
-  </si>
-  <si>
-    <t>233-237</t>
-  </si>
-  <si>
-    <t>ajoutAuPanier() / spécification</t>
-  </si>
-  <si>
-    <t>Si le produit n existe pas dans notre tableau achat, alors on le push et on itère montaTotal et nbArticle</t>
-  </si>
-  <si>
-    <t>aucune intéraction ou interraction avec de mauvaises valeurs, ou NAN</t>
-  </si>
-  <si>
-    <t>241-256</t>
-  </si>
-  <si>
-    <t>ajoutAuPanier() / spécification 2</t>
-  </si>
-  <si>
-    <t>vérifie si produit est présent grace à id et couleur</t>
-  </si>
-  <si>
-    <t>pas d'ajout, ajout au mauvais produit, NAN</t>
-  </si>
-  <si>
-    <t>257-270</t>
-  </si>
-  <si>
-    <t>ajoutAuPanier () specification 3</t>
-  </si>
-  <si>
-    <t>si le produit est déjà dans le panier, incrémenter la value déjà contenu dans panier, mais tout de même augmenter le montantTotal et le nbDarticle</t>
-  </si>
-  <si>
-    <t>pas d'ajout, ajout au mauvais produit, NAN, probleme de sortie de fonction.Si le dernier produit ajouté est le meme, lincrémente; mais si on ajoute un autre produit, et que le on reprend le 1er, va créer une nouvelle ligne</t>
-  </si>
-  <si>
-    <t>286-311</t>
-  </si>
-  <si>
-    <t>AppelDesProduits() //  Message erreur</t>
-  </si>
-  <si>
-    <t>que le message d erreur s'affiche bien en cas de non connnexion au serveur</t>
-  </si>
-  <si>
-    <t>page blanche,</t>
-  </si>
-  <si>
-    <t>basket.js</t>
-  </si>
-  <si>
-    <t>154 -174</t>
-  </si>
-  <si>
-    <t>avertirPanierVide()</t>
-  </si>
-  <si>
-    <t>Si le panier est vide, avertir l'utilisateur et y mettre un visuel</t>
-  </si>
-  <si>
-    <t>en vidant le panier ou en y allant avant meme de mettre un article dans le panier</t>
-  </si>
-  <si>
-    <t>en débranchant le serveur</t>
-  </si>
-  <si>
-    <t>en cliquant sur le bouton ajouter au panier</t>
-  </si>
-  <si>
-    <t>créer un nouvel objet</t>
-  </si>
-  <si>
-    <t>automatiser les informations liées à l'objet, aux informations du teddy concernés</t>
-  </si>
-  <si>
-    <t>en cliquant sur le bouton</t>
-  </si>
-  <si>
-    <t>204-3010</t>
-  </si>
-  <si>
-    <t>creationLigne()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour chaque article différents contenus dans le panier, afficher une ligne reprenant toutes les infos </t>
-  </si>
-  <si>
-    <t>Ajouter des produits au panier et vérifier leur présence dans la page panier</t>
-  </si>
-  <si>
-    <t>création d'une ligne à chaque produit ajouté (sans considération de l'id et de la couleur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">au click sur le logo, que la ligne disparaisse, que le montantTotal soit actualisé, comme le nb darticles. </t>
-  </si>
-  <si>
-    <t>En cliquant sur le produit supprimer, et en observant les valeurs du sotrage</t>
-  </si>
-  <si>
-    <t>supression de tout le panier, supprimer les neods mais pas la présence dans le storage</t>
-  </si>
-  <si>
-    <t>280- 309</t>
-  </si>
-  <si>
-    <t>317-360</t>
-  </si>
-  <si>
-    <t>fonction anonyme. Suppresion du produit dans panier</t>
-  </si>
-  <si>
-    <t>refresh()</t>
-  </si>
-  <si>
-    <t>supprimer un produit</t>
-  </si>
-  <si>
-    <t>aucun changement</t>
-  </si>
-  <si>
-    <t>Lors de la suppresion d'un produit, on veut un calcul automatique du prix total, du nb d'article total. Si nb article devient 0; renvoyer fonction avertirPanierVide()</t>
-  </si>
-  <si>
-    <t>609-620</t>
-  </si>
-  <si>
-    <t>regex</t>
-  </si>
-  <si>
-    <t>Que le formulaire ne contienne pas du chiffres pour les prenoms et nom, min de caractère pour les autres, et autorisations caractères spéciaux pour mails</t>
-  </si>
-  <si>
-    <t>en répondant au formulaire avec des caractères non autorisés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">que le formulaire soit accépé sans validation </t>
-  </si>
-  <si>
-    <t>605-613</t>
-  </si>
-  <si>
-    <t>objet contact</t>
-  </si>
-  <si>
-    <t>Création d'un objet, validé par les regex, qui puisse être transmis avec la commande au serveur</t>
-  </si>
-  <si>
-    <t>remplir les champs requis dans le formulaire</t>
-  </si>
-  <si>
-    <t>que les champs écrit ne correspondent pas aux bons champs de l'objet. Ou que rien ne se passe.</t>
+    <t>l7 -317</t>
+  </si>
+  <si>
+    <t>l36-100</t>
+  </si>
+  <si>
+    <t>Que les infos affichées correspondent à celles du produit</t>
+  </si>
+  <si>
+    <t>En comparant les infos du teddy de l'api et celles affichées</t>
+  </si>
+  <si>
+    <t>Mauvaises informations chargées, voire aucune infos</t>
+  </si>
+  <si>
+    <t>l96-109</t>
+  </si>
+  <si>
+    <t>Liste déroulante avec la liste des couleurs dispo pour ce produit</t>
+  </si>
+  <si>
+    <t>Vérifier que la liste proposée reprennent les infos lié au produit concerné</t>
+  </si>
+  <si>
+    <t>Aucune liste n'apparait.
+Les champs ne correpondent pas au produit affiché</t>
+  </si>
+  <si>
+    <t>l203-291</t>
+  </si>
+  <si>
+    <t>En simulant des commandes</t>
+  </si>
+  <si>
+    <t>Ajouter au panier</t>
+  </si>
+  <si>
+    <t>Aucun resultats, résultats incohérents (prix ne correspond pas à quantité, quantité négatives…)</t>
+  </si>
+  <si>
+    <t>Choix des couleurs</t>
+  </si>
+  <si>
+    <t>Sous partie fonction appel du produit</t>
+  </si>
+  <si>
+    <t>Appel du produit</t>
+  </si>
+  <si>
+    <t>Créer des produits</t>
+  </si>
+  <si>
+    <t>Appel des produits</t>
+  </si>
+  <si>
+    <t>l271- 276</t>
+  </si>
+  <si>
+    <t>Mettre à jour le panier</t>
+  </si>
+  <si>
+    <t>Que les quantités et le montant total s'accordent au nombre d'article dans le panier</t>
+  </si>
+  <si>
+    <t>l192- 196</t>
+  </si>
+  <si>
+    <t>Valider article</t>
+  </si>
+  <si>
+    <t>Une confirmation visuelle que l'article a été ajouté au panier</t>
+  </si>
+  <si>
+    <t>Rien n'apparait
+Information apparait mais avec un effet inatendu</t>
+  </si>
+  <si>
+    <t>basket,js</t>
+  </si>
+  <si>
+    <t>l203-299</t>
+  </si>
+  <si>
+    <t>Création ligne par produit commandé</t>
+  </si>
+  <si>
+    <t>Une ligne reprennant les informations liées à un produit séléctionnées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La ligne n'apparait pas
+L'un des informations n'est pas la bonne (quantité, prix…), ou  une info n'apparait pas
+</t>
+  </si>
+  <si>
+    <t>l267-296</t>
+  </si>
+  <si>
+    <t>Supprimer un produit</t>
+  </si>
+  <si>
+    <t>Qu'au clic, le produit soit supprimé de la commande et que les informations récp s'actualisent</t>
+  </si>
+  <si>
+    <t>en simulant une supression d'article</t>
+  </si>
+  <si>
+    <t>Aucune suppression
+les informations ne s'actualisent pas ou mal
+Supression total du panier</t>
+  </si>
+  <si>
+    <t>l304- 341</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Que suite à la suppression d'un article, les informations du panier s'actualisent et soient cohérentes</t>
+  </si>
+  <si>
+    <t>Aucun changement
+Changement non cohérents</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>l597-656</t>
+  </si>
+  <si>
+    <t>Que la commande ne puisse pas être passée si l'un des champs remplis ne réponde pas aux Regex établies</t>
+  </si>
+  <si>
+    <t>Simuler une commande en remplissant les champs requis avec des utilisations interdises par les regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La commande est tout de même passée.
+Malgré la conformité des champs, la commande bloque
+</t>
+  </si>
+  <si>
+    <t>l660-67</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>Que les informations liées à la commande (articles + infos client) soient correctement transmises</t>
+  </si>
+  <si>
+    <t>Quantité sélectionnée ajoutée, incrémentation du prix et quantité et cas d'ajout/suppression
+Que si la quantité est = 0, que rien ne soit ajouté au panier</t>
+  </si>
+  <si>
+    <t>En logant informations dans la console et en désactivant le lien de redirection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aucune information n'apparait. 
+Les infos ne correspondent pas 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -376,23 +260,6 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -408,36 +275,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -446,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,61 +301,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -738,31 +544,31 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="63.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -793,484 +599,330 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="15">
-        <v>43405</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="20">
-        <v>34516</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    </row>
+    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="19" t="s">
+    </row>
+    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="12" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="D10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="12" t="s">
+    </row>
+    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="12" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="12" t="s">
+      <c r="E14" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="F14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="21" t="s">
+    </row>
+    <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="D15" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="E15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="F15" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="16" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -6111,6 +5763,12 @@
       <c r="F999" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="C5:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Template+de+Plan+de+tests.xlsx
+++ b/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Titoune\Desktop\formation_open _classrooms\Avec_tuteur\Projets\P5_tristan_riedinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C49084A-8C06-4E01-908B-B0A968C8F6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC8C510-3AD7-471D-8437-9A0F8E099C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,13 +311,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -544,8 +544,8 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -599,10 +599,10 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4"/>
@@ -610,8 +610,8 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
@@ -626,8 +626,8 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -644,22 +644,22 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
@@ -676,8 +676,8 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
@@ -694,8 +694,8 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
@@ -712,8 +712,8 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
@@ -730,8 +730,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="s">
@@ -748,10 +748,10 @@
       </c>
     </row>
     <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C11" t="s">
@@ -768,8 +768,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C12" t="s">
@@ -786,8 +786,8 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
@@ -804,8 +804,8 @@
       </c>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C14" t="s">
@@ -822,8 +822,8 @@
       </c>
     </row>
     <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C15" t="s">
@@ -840,19 +840,19 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="2:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
